--- a/biology/Médecine/Muscle_longitudinal_inférieur_de_la_langue/Muscle_longitudinal_inférieur_de_la_langue.xlsx
+++ b/biology/Médecine/Muscle_longitudinal_inférieur_de_la_langue/Muscle_longitudinal_inférieur_de_la_langue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_longitudinal_inf%C3%A9rieur_de_la_langue</t>
+          <t>Muscle_longitudinal_inférieur_de_la_langue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle longitudinal inférieur de la langue (ou muscle lingual inférieur ou muscle lingual) est un muscle intrinsèque de la langue. Il est situé sur la face inférieure de la langue entre le muscle génio-glosse et le muscle hyo-glosse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_longitudinal_inf%C3%A9rieur_de_la_langue</t>
+          <t>Muscle_longitudinal_inférieur_de_la_langue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Le muscle longitudinal inférieur de la langue nait sur la petite corne de l'os hyoïde.
-Trajet
-Les fibres musculaires se dirigent en avant. Certaines se confondent avec celles du muscle stylo-glosse.
-Terminaison
-Le muscle se termine sur la face profonde de la muqueuse de la langue, à sa pointe.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle longitudinal inférieur de la langue nait sur la petite corne de l'os hyoïde.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_longitudinal_inf%C3%A9rieur_de_la_langue</t>
+          <t>Muscle_longitudinal_inférieur_de_la_langue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par le  nerf hypoglosse (XII).
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres musculaires se dirigent en avant. Certaines se confondent avec celles du muscle stylo-glosse.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_longitudinal_inf%C3%A9rieur_de_la_langue</t>
+          <t>Muscle_longitudinal_inférieur_de_la_langue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +594,82 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle se termine sur la face profonde de la muqueuse de la langue, à sa pointe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_longitudinal_inférieur_de_la_langue</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_longitudinal_inf%C3%A9rieur_de_la_langue</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par le  nerf hypoglosse (XII).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_longitudinal_inférieur_de_la_langue</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_longitudinal_inf%C3%A9rieur_de_la_langue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce muscle abaisse et rétracte la langue.
 </t>
